--- a/artfynd/A 14810-2019.xlsx
+++ b/artfynd/A 14810-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>78048328</v>
+        <v>87268294</v>
       </c>
       <c r="B2" t="n">
-        <v>94121</v>
+        <v>90645</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>53</v>
+        <v>4361</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,13 +720,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>536327.1569634416</v>
+        <v>536463.7703930424</v>
       </c>
       <c r="R2" t="n">
-        <v>6612696.230897317</v>
+        <v>6612603.031153577</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2019-03-29</t>
+          <t>2019-09-10</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2019-03-29</t>
+          <t>2019-09-17</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -776,6 +776,11 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Äldre barrskog</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -785,14 +790,14 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Jacob Rudhe</t>
+          <t>Tommy Pettersson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>78048326</v>
+        <v>78048328</v>
       </c>
       <c r="B3" t="n">
         <v>94121</v>
@@ -832,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>536325.8725824017</v>
+        <v>536327.1569634416</v>
       </c>
       <c r="R3" t="n">
-        <v>6612619.888196192</v>
+        <v>6612696.230897317</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>78048334</v>
+        <v>78048326</v>
       </c>
       <c r="B4" t="n">
-        <v>73631</v>
+        <v>94121</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +921,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6426</v>
+        <v>53</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +949,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>536275.0718163725</v>
+        <v>536325.8725824017</v>
       </c>
       <c r="R4" t="n">
-        <v>6612897.917391031</v>
+        <v>6612619.888196192</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>78048315</v>
+        <v>78048334</v>
       </c>
       <c r="B5" t="n">
-        <v>89392</v>
+        <v>73631</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1033,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>6426</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1061,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>536235.9940487144</v>
+        <v>536275.0718163725</v>
       </c>
       <c r="R5" t="n">
-        <v>6613011.772271588</v>
+        <v>6612897.917391031</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>78048324</v>
+        <v>78048315</v>
       </c>
       <c r="B6" t="n">
-        <v>94121</v>
+        <v>89392</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1149,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>53</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>536202.8768236646</v>
+        <v>536235.9940487144</v>
       </c>
       <c r="R6" t="n">
-        <v>6612562.079503523</v>
+        <v>6613011.772271588</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>78048320</v>
+        <v>78048324</v>
       </c>
       <c r="B7" t="n">
-        <v>78098</v>
+        <v>94121</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1261,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6453</v>
+        <v>53</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1285,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>536152.7892086137</v>
+        <v>536202.8768236646</v>
       </c>
       <c r="R7" t="n">
-        <v>6612714.761902597</v>
+        <v>6612562.079503523</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,10 +1357,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>78048329</v>
+        <v>78048320</v>
       </c>
       <c r="B8" t="n">
-        <v>94121</v>
+        <v>78098</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1373,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>53</v>
+        <v>6453</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1397,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>536300.0869130346</v>
+        <v>536152.7892086137</v>
       </c>
       <c r="R8" t="n">
-        <v>6612720.231794543</v>
+        <v>6612714.761902597</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1464,10 +1469,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>78048316</v>
+        <v>78048329</v>
       </c>
       <c r="B9" t="n">
-        <v>89392</v>
+        <v>94121</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,21 +1485,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>53</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1509,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>536177.8323430284</v>
+        <v>536300.0869130346</v>
       </c>
       <c r="R9" t="n">
-        <v>6613109.77096361</v>
+        <v>6612720.231794543</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1576,10 +1581,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>78048318</v>
+        <v>78048316</v>
       </c>
       <c r="B10" t="n">
-        <v>89356</v>
+        <v>89392</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1588,25 +1593,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1621,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>536115.7980990882</v>
+        <v>536177.8323430284</v>
       </c>
       <c r="R10" t="n">
-        <v>6612770.008195957</v>
+        <v>6613109.77096361</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1688,7 +1693,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>78048319</v>
+        <v>78048318</v>
       </c>
       <c r="B11" t="n">
         <v>89356</v>
@@ -1728,10 +1733,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>536180.1594061058</v>
+        <v>536115.7980990882</v>
       </c>
       <c r="R11" t="n">
-        <v>6612711.993489651</v>
+        <v>6612770.008195957</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1800,10 +1805,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>78048312</v>
+        <v>78048319</v>
       </c>
       <c r="B12" t="n">
-        <v>89392</v>
+        <v>89356</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1812,25 +1817,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1845,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>536311.8896772385</v>
+        <v>536180.1594061058</v>
       </c>
       <c r="R12" t="n">
-        <v>6612964.995403937</v>
+        <v>6612711.993489651</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1912,10 +1917,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>78048325</v>
+        <v>78048312</v>
       </c>
       <c r="B13" t="n">
-        <v>89356</v>
+        <v>89392</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1924,25 +1929,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1957,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>536317.2454282821</v>
+        <v>536311.8896772385</v>
       </c>
       <c r="R13" t="n">
-        <v>6612621.826474189</v>
+        <v>6612964.995403937</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2024,7 +2029,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>78048313</v>
+        <v>78048325</v>
       </c>
       <c r="B14" t="n">
         <v>89356</v>
@@ -2064,10 +2069,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>536224.0809567241</v>
+        <v>536317.2454282821</v>
       </c>
       <c r="R14" t="n">
-        <v>6612934.827682796</v>
+        <v>6612621.826474189</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2136,10 +2141,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>78048314</v>
+        <v>78048313</v>
       </c>
       <c r="B15" t="n">
-        <v>89392</v>
+        <v>89356</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2148,25 +2153,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2176,10 +2181,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>536219.1721673083</v>
+        <v>536224.0809567241</v>
       </c>
       <c r="R15" t="n">
-        <v>6612971.17315519</v>
+        <v>6612934.827682796</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2248,7 +2253,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>78048311</v>
+        <v>78048314</v>
       </c>
       <c r="B16" t="n">
         <v>89392</v>
@@ -2288,10 +2293,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>536410.1085462754</v>
+        <v>536219.1721673083</v>
       </c>
       <c r="R16" t="n">
-        <v>6612809.760389954</v>
+        <v>6612971.17315519</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2360,10 +2365,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>78048332</v>
+        <v>78048311</v>
       </c>
       <c r="B17" t="n">
-        <v>73507</v>
+        <v>89392</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2372,25 +2377,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6428</v>
+        <v>1202</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2400,10 +2405,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>536310.814922838</v>
+        <v>536410.1085462754</v>
       </c>
       <c r="R17" t="n">
-        <v>6612814.861281444</v>
+        <v>6612809.760389954</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2472,10 +2477,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>86992206</v>
+        <v>78048332</v>
       </c>
       <c r="B18" t="n">
-        <v>89356</v>
+        <v>73507</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2488,39 +2493,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5447</v>
+        <v>6428</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>N Ångnaren, Vstm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>536094.760197836</v>
+        <v>536310.814922838</v>
       </c>
       <c r="R18" t="n">
-        <v>6612903.755677314</v>
+        <v>6612814.861281444</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-03-29</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-03-29</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2573,11 +2573,6 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
-      </c>
-      <c r="AI18" t="inlineStr">
-        <is>
-          <t>Barrnaturskog</t>
-        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
@@ -2587,17 +2582,17 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Jacob Rudhe, Zsombor Károlyi</t>
+          <t>Jacob Rudhe</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>86992204</v>
+        <v>86992206</v>
       </c>
       <c r="B19" t="n">
-        <v>78098</v>
+        <v>89356</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2606,38 +2601,43 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6453</v>
+        <v>5447</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>N Ångnaren, Vstm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>536041.1814074734</v>
+        <v>536094.760197836</v>
       </c>
       <c r="R19" t="n">
-        <v>6612894.140851921</v>
+        <v>6612903.755677314</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2711,10 +2711,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>86992210</v>
+        <v>86992204</v>
       </c>
       <c r="B20" t="n">
-        <v>89356</v>
+        <v>78098</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2723,43 +2723,38 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5447</v>
+        <v>6453</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>N Ångnaren, Vstm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>536207.1172397283</v>
+        <v>536041.1814074734</v>
       </c>
       <c r="R20" t="n">
-        <v>6613222.765008557</v>
+        <v>6612894.140851921</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2833,10 +2828,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>86992196</v>
+        <v>86992210</v>
       </c>
       <c r="B21" t="n">
-        <v>94121</v>
+        <v>89356</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2845,38 +2840,43 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>53</v>
+        <v>5447</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>N Ångnaren, Vstm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>536257.1208539325</v>
+        <v>536207.1172397283</v>
       </c>
       <c r="R21" t="n">
-        <v>6612764.803560221</v>
+        <v>6613222.765008557</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2950,10 +2950,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>86992215</v>
+        <v>86992196</v>
       </c>
       <c r="B22" t="n">
-        <v>90653</v>
+        <v>94121</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2962,43 +2962,38 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4364</v>
+        <v>53</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>N Ångnaren, Vstm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>536254.9998195746</v>
+        <v>536257.1208539325</v>
       </c>
       <c r="R22" t="n">
-        <v>6613244.961778558</v>
+        <v>6612764.803560221</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3072,10 +3067,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>86992214</v>
+        <v>86992215</v>
       </c>
       <c r="B23" t="n">
-        <v>89392</v>
+        <v>90653</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3084,37 +3079,28 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1202</v>
+        <v>4364</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>teleomorf</t>
@@ -3126,10 +3112,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>536205.7917535987</v>
+        <v>536254.9998195746</v>
       </c>
       <c r="R23" t="n">
-        <v>6613255.099041227</v>
+        <v>6613244.961778558</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3203,10 +3189,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>86992192</v>
+        <v>86992214</v>
       </c>
       <c r="B24" t="n">
-        <v>89356</v>
+        <v>89392</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3215,28 +3201,37 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>teleomorf</t>
@@ -3248,10 +3243,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>536430.8880235823</v>
+        <v>536205.7917535987</v>
       </c>
       <c r="R24" t="n">
-        <v>6613119.807937194</v>
+        <v>6613255.099041227</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3325,7 +3320,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>86992205</v>
+        <v>86992192</v>
       </c>
       <c r="B25" t="n">
         <v>89356</v>
@@ -3370,10 +3365,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>536058.0006962135</v>
+        <v>536430.8880235823</v>
       </c>
       <c r="R25" t="n">
-        <v>6612935.245384749</v>
+        <v>6613119.807937194</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3447,10 +3442,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>86992194</v>
+        <v>86992205</v>
       </c>
       <c r="B26" t="n">
-        <v>90676</v>
+        <v>89356</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3459,25 +3454,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5966</v>
+        <v>5447</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3492,10 +3487,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>536251.1841369969</v>
+        <v>536058.0006962135</v>
       </c>
       <c r="R26" t="n">
-        <v>6613063.980438209</v>
+        <v>6612935.245384749</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3569,10 +3564,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>86992193</v>
+        <v>86992194</v>
       </c>
       <c r="B27" t="n">
-        <v>89392</v>
+        <v>90676</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3585,33 +3580,24 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1202</v>
+        <v>5966</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>teleomorf</t>
@@ -3623,10 +3609,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>536320.8053038279</v>
+        <v>536251.1841369969</v>
       </c>
       <c r="R27" t="n">
-        <v>6613194.046929843</v>
+        <v>6613063.980438209</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3700,10 +3686,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>86992213</v>
+        <v>86992193</v>
       </c>
       <c r="B28" t="n">
-        <v>89832</v>
+        <v>89392</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3712,25 +3698,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -3754,10 +3740,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>536207.2126561686</v>
+        <v>536320.8053038279</v>
       </c>
       <c r="R28" t="n">
-        <v>6613265.221128508</v>
+        <v>6613194.046929843</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3831,10 +3817,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>86992201</v>
+        <v>86992213</v>
       </c>
       <c r="B29" t="n">
-        <v>89392</v>
+        <v>89832</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3843,25 +3829,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -3885,10 +3871,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>536194.0840691426</v>
+        <v>536207.2126561686</v>
       </c>
       <c r="R29" t="n">
-        <v>6612685.842545609</v>
+        <v>6613265.221128508</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3962,10 +3948,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>86992182</v>
+        <v>86992201</v>
       </c>
       <c r="B30" t="n">
-        <v>89356</v>
+        <v>89392</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3974,28 +3960,37 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>teleomorf</t>
@@ -4007,10 +4002,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>536311.8896772385</v>
+        <v>536194.0840691426</v>
       </c>
       <c r="R30" t="n">
-        <v>6612964.995403937</v>
+        <v>6612685.842545609</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4084,10 +4079,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>86992202</v>
+        <v>86992182</v>
       </c>
       <c r="B31" t="n">
-        <v>90653</v>
+        <v>89356</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4100,21 +4095,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4364</v>
+        <v>5447</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4129,10 +4124,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>536125.0031379085</v>
+        <v>536311.8896772385</v>
       </c>
       <c r="R31" t="n">
-        <v>6612813.062819644</v>
+        <v>6612964.995403937</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4206,10 +4201,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>86992180</v>
+        <v>86992202</v>
       </c>
       <c r="B32" t="n">
-        <v>89392</v>
+        <v>90653</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4218,37 +4213,28 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1202</v>
+        <v>4364</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>teleomorf</t>
@@ -4260,10 +4246,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>536318.0346974479</v>
+        <v>536125.0031379085</v>
       </c>
       <c r="R32" t="n">
-        <v>6613010.040437521</v>
+        <v>6612813.062819644</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4337,10 +4323,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>86992181</v>
+        <v>86992180</v>
       </c>
       <c r="B33" t="n">
-        <v>89356</v>
+        <v>89392</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4349,28 +4335,37 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>teleomorf</t>
@@ -4382,10 +4377,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>536321.2293271344</v>
+        <v>536318.0346974479</v>
       </c>
       <c r="R33" t="n">
-        <v>6612993.896985485</v>
+        <v>6613010.040437521</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4459,10 +4454,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>86992189</v>
+        <v>86992181</v>
       </c>
       <c r="B34" t="n">
-        <v>89392</v>
+        <v>89356</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4471,37 +4466,28 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>teleomorf</t>
@@ -4513,10 +4499,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>536474.8879553603</v>
+        <v>536321.2293271344</v>
       </c>
       <c r="R34" t="n">
-        <v>6612917.04565632</v>
+        <v>6612993.896985485</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4590,7 +4576,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>86992209</v>
+        <v>86992189</v>
       </c>
       <c r="B35" t="n">
         <v>89392</v>
@@ -4644,10 +4630,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>536207.1172397283</v>
+        <v>536474.8879553603</v>
       </c>
       <c r="R35" t="n">
-        <v>6613222.765008557</v>
+        <v>6612917.04565632</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4721,10 +4707,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>86992208</v>
+        <v>86992209</v>
       </c>
       <c r="B36" t="n">
-        <v>89356</v>
+        <v>89392</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4733,28 +4719,37 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>teleomorf</t>
@@ -4766,10 +4761,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>535903.7636971432</v>
+        <v>536207.1172397283</v>
       </c>
       <c r="R36" t="n">
-        <v>6613178.902258919</v>
+        <v>6613222.765008557</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4843,10 +4838,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>86992207</v>
+        <v>86992208</v>
       </c>
       <c r="B37" t="n">
-        <v>90653</v>
+        <v>89356</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4859,21 +4854,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4364</v>
+        <v>5447</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4888,10 +4883,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>536187.8729946789</v>
+        <v>535903.7636971432</v>
       </c>
       <c r="R37" t="n">
-        <v>6612909.204212928</v>
+        <v>6613178.902258919</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4965,10 +4960,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>86992197</v>
+        <v>86992207</v>
       </c>
       <c r="B38" t="n">
-        <v>73631</v>
+        <v>90653</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4981,34 +4976,39 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6426</v>
+        <v>4364</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>N Ångnaren, Vstm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>536355.147229443</v>
+        <v>536187.8729946789</v>
       </c>
       <c r="R38" t="n">
-        <v>6612733.909030474</v>
+        <v>6612909.204212928</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5082,10 +5082,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>86992195</v>
+        <v>86992197</v>
       </c>
       <c r="B39" t="n">
-        <v>89392</v>
+        <v>73631</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5094,52 +5094,38 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1202</v>
+        <v>6426</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>N Ångnaren, Vstm</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>536248.8202652718</v>
+        <v>536355.147229443</v>
       </c>
       <c r="R39" t="n">
-        <v>6612942.143709468</v>
+        <v>6612733.909030474</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5213,7 +5199,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>87268280</v>
+        <v>86992195</v>
       </c>
       <c r="B40" t="n">
         <v>89392</v>
@@ -5246,20 +5232,34 @@
           <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>N Ångnaren, Vstm</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>536200.208762412</v>
+        <v>536248.8202652718</v>
       </c>
       <c r="R40" t="n">
-        <v>6612680.846845075</v>
+        <v>6612942.143709468</v>
       </c>
       <c r="S40" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2019-09-10</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
@@ -5293,7 +5293,7 @@
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2019-09-17</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
@@ -5312,12 +5312,7 @@
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>Äldre granskog</t>
-        </is>
-      </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>Liggande granstam</t>
+          <t>Barrnaturskog</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -5328,14 +5323,14 @@
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Tommy Pettersson</t>
+          <t>Jacob Rudhe, Zsombor Károlyi</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>87268281</v>
+        <v>87268280</v>
       </c>
       <c r="B41" t="n">
         <v>89392</v>
@@ -5375,10 +5370,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>536240.0050669576</v>
+        <v>536200.208762412</v>
       </c>
       <c r="R41" t="n">
-        <v>6613015.854718979</v>
+        <v>6612680.846845075</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5434,7 +5429,7 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>Äldre barrskog</t>
+          <t>Äldre granskog</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
@@ -5457,10 +5452,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>87268296</v>
+        <v>87268281</v>
       </c>
       <c r="B42" t="n">
-        <v>90645</v>
+        <v>89392</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5473,21 +5468,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4361</v>
+        <v>1202</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5497,10 +5492,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>535982.2218852191</v>
+        <v>536240.0050669576</v>
       </c>
       <c r="R42" t="n">
-        <v>6613128.102080177</v>
+        <v>6613015.854718979</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5557,6 +5552,11 @@
       <c r="AI42" t="inlineStr">
         <is>
           <t>Äldre barrskog</t>
+        </is>
+      </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>Liggande granstam</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -5574,10 +5574,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>87268307</v>
+        <v>87268296</v>
       </c>
       <c r="B43" t="n">
-        <v>98520</v>
+        <v>90645</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5586,25 +5586,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>222498</v>
+        <v>4361</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5614,10 +5614,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>536282.0051510433</v>
+        <v>535982.2218852191</v>
       </c>
       <c r="R43" t="n">
-        <v>6612652.825695952</v>
+        <v>6613128.102080177</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>Äldre granskog, lågörtstyp</t>
+          <t>Äldre barrskog</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -5691,10 +5691,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>87268298</v>
+        <v>87268307</v>
       </c>
       <c r="B44" t="n">
-        <v>78503</v>
+        <v>98520</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5707,21 +5707,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6456</v>
+        <v>222498</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5731,10 +5731,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>536419.9877669835</v>
+        <v>536282.0051510433</v>
       </c>
       <c r="R44" t="n">
-        <v>6612939.256692476</v>
+        <v>6612652.825695952</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5790,12 +5790,7 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>Äldre barrskog, västbrant</t>
-        </is>
-      </c>
-      <c r="AO44" t="inlineStr">
-        <is>
-          <t>Asp</t>
+          <t>Äldre granskog, lågörtstyp</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -5813,10 +5808,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>87268305</v>
+        <v>87268298</v>
       </c>
       <c r="B45" t="n">
-        <v>94121</v>
+        <v>78503</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5825,25 +5820,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>53</v>
+        <v>6456</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5853,10 +5848,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>536388.2344839968</v>
+        <v>536419.9877669835</v>
       </c>
       <c r="R45" t="n">
-        <v>6612872.226366057</v>
+        <v>6612939.256692476</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5912,12 +5907,12 @@
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>Äldre barrskog</t>
+          <t>Äldre barrskog, västbrant</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>Liggande murken björkstam</t>
+          <t>Asp</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -5935,10 +5930,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>87268309</v>
+        <v>87268305</v>
       </c>
       <c r="B46" t="n">
-        <v>98520</v>
+        <v>94121</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5947,25 +5942,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>222498</v>
+        <v>53</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5975,10 +5970,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>536296.2325198681</v>
+        <v>536388.2344839968</v>
       </c>
       <c r="R46" t="n">
-        <v>6612699.974761176</v>
+        <v>6612872.226366057</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -6035,6 +6030,11 @@
       <c r="AI46" t="inlineStr">
         <is>
           <t>Äldre barrskog</t>
+        </is>
+      </c>
+      <c r="AO46" t="inlineStr">
+        <is>
+          <t>Liggande murken björkstam</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -6052,10 +6052,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>87268299</v>
+        <v>87268309</v>
       </c>
       <c r="B47" t="n">
-        <v>93276</v>
+        <v>98520</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6068,21 +6068,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2170</v>
+        <v>222498</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -6092,10 +6092,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>536088.081637959</v>
+        <v>536296.2325198681</v>
       </c>
       <c r="R47" t="n">
-        <v>6612861.232006238</v>
+        <v>6612699.974761176</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -6152,11 +6152,6 @@
       <c r="AI47" t="inlineStr">
         <is>
           <t>Äldre barrskog</t>
-        </is>
-      </c>
-      <c r="AO47" t="inlineStr">
-        <is>
-          <t>Liggande murken tallstam</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -6174,10 +6169,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>87268295</v>
+        <v>87268299</v>
       </c>
       <c r="B48" t="n">
-        <v>90645</v>
+        <v>93276</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6186,25 +6181,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4361</v>
+        <v>2170</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6214,10 +6209,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>536312.0927440071</v>
+        <v>536088.081637959</v>
       </c>
       <c r="R48" t="n">
-        <v>6612578.808465026</v>
+        <v>6612861.232006238</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6273,7 +6268,12 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>Äldre granskog</t>
+          <t>Äldre barrskog</t>
+        </is>
+      </c>
+      <c r="AO48" t="inlineStr">
+        <is>
+          <t>Liggande murken tallstam</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -6291,10 +6291,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>87268275</v>
+        <v>87268295</v>
       </c>
       <c r="B49" t="n">
-        <v>90697</v>
+        <v>90645</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6307,21 +6307,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5449</v>
+        <v>4361</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6331,10 +6331,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>536243.9535535104</v>
+        <v>536312.0927440071</v>
       </c>
       <c r="R49" t="n">
-        <v>6613183.193127984</v>
+        <v>6612578.808465026</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6390,7 +6390,7 @@
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>Äldre tallskog, lav-ristyp</t>
+          <t>Äldre granskog</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>
@@ -6408,7 +6408,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>87268276</v>
+        <v>87268275</v>
       </c>
       <c r="B50" t="n">
         <v>90697</v>
@@ -6448,10 +6448,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>536185.2026722064</v>
+        <v>536243.9535535104</v>
       </c>
       <c r="R50" t="n">
-        <v>6612975.899044176</v>
+        <v>6613183.193127984</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6507,7 +6507,7 @@
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>Äldre barrskog</t>
+          <t>Äldre tallskog, lav-ristyp</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -6525,10 +6525,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>87268292</v>
+        <v>87268276</v>
       </c>
       <c r="B51" t="n">
-        <v>90655</v>
+        <v>90697</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6541,21 +6541,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>788</v>
+        <v>5449</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Gul taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hydnellum geogenium</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Fr.) Banker</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6565,10 +6565,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>536050.1188562188</v>
+        <v>536185.2026722064</v>
       </c>
       <c r="R51" t="n">
-        <v>6613070.124858442</v>
+        <v>6612975.899044176</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6624,7 +6624,7 @@
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>Äldre barrskog, örtstråk</t>
+          <t>Äldre barrskog</t>
         </is>
       </c>
       <c r="AT51" t="inlineStr"/>
@@ -6642,10 +6642,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>87268290</v>
+        <v>87268292</v>
       </c>
       <c r="B52" t="n">
-        <v>90665</v>
+        <v>90655</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6654,25 +6654,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4366</v>
+        <v>788</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Gul taggsvamp</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum geogenium</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) Banker</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6682,10 +6682,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>536443.1368756294</v>
+        <v>536050.1188562188</v>
       </c>
       <c r="R52" t="n">
-        <v>6612745.885639772</v>
+        <v>6613070.124858442</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6759,10 +6759,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>87268308</v>
+        <v>87268290</v>
       </c>
       <c r="B53" t="n">
-        <v>98520</v>
+        <v>90665</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6775,21 +6775,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>222498</v>
+        <v>4366</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6799,10 +6799,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>536391.8964998829</v>
+        <v>536443.1368756294</v>
       </c>
       <c r="R53" t="n">
-        <v>6612808.066791329</v>
+        <v>6612745.885639772</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6858,7 +6858,7 @@
       </c>
       <c r="AI53" t="inlineStr">
         <is>
-          <t>Äldre barrskog</t>
+          <t>Äldre barrskog, örtstråk</t>
         </is>
       </c>
       <c r="AT53" t="inlineStr"/>
@@ -6876,10 +6876,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>87268293</v>
+        <v>87268308</v>
       </c>
       <c r="B54" t="n">
-        <v>90653</v>
+        <v>98520</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6892,21 +6892,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4364</v>
+        <v>222498</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6916,10 +6916,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>536081.8220503493</v>
+        <v>536391.8964998829</v>
       </c>
       <c r="R54" t="n">
-        <v>6612775.240733222</v>
+        <v>6612808.066791329</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6993,10 +6993,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>87268278</v>
+        <v>87268293</v>
       </c>
       <c r="B55" t="n">
-        <v>89356</v>
+        <v>90653</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7009,21 +7009,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5447</v>
+        <v>4364</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -7033,10 +7033,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>536312.9807135732</v>
+        <v>536081.8220503493</v>
       </c>
       <c r="R55" t="n">
-        <v>6612956.918673363</v>
+        <v>6612775.240733222</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -7093,11 +7093,6 @@
       <c r="AI55" t="inlineStr">
         <is>
           <t>Äldre barrskog</t>
-        </is>
-      </c>
-      <c r="AO55" t="inlineStr">
-        <is>
-          <t>Liggande granstam</t>
         </is>
       </c>
       <c r="AT55" t="inlineStr"/>
@@ -7115,10 +7110,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>87268304</v>
+        <v>87268278</v>
       </c>
       <c r="B56" t="n">
-        <v>94121</v>
+        <v>89356</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7127,25 +7122,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>53</v>
+        <v>5447</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7155,10 +7150,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>536168.7891376906</v>
+        <v>536312.9807135732</v>
       </c>
       <c r="R56" t="n">
-        <v>6612788.211864223</v>
+        <v>6612956.918673363</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -7214,12 +7209,12 @@
       </c>
       <c r="AI56" t="inlineStr">
         <is>
-          <t>Äldre barrskog, fuktig sänka</t>
+          <t>Äldre barrskog</t>
         </is>
       </c>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>Liggande murken granstam</t>
+          <t>Liggande granstam</t>
         </is>
       </c>
       <c r="AT56" t="inlineStr"/>
@@ -7237,10 +7232,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>87268300</v>
+        <v>87268304</v>
       </c>
       <c r="B57" t="n">
-        <v>93276</v>
+        <v>94121</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7249,25 +7244,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>2170</v>
+        <v>53</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7277,10 +7272,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>536419.0481739138</v>
+        <v>536168.7891376906</v>
       </c>
       <c r="R57" t="n">
-        <v>6613035.789294735</v>
+        <v>6612788.211864223</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7336,12 +7331,12 @@
       </c>
       <c r="AI57" t="inlineStr">
         <is>
-          <t>Äldre barrskog</t>
+          <t>Äldre barrskog, fuktig sänka</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>Liggande murken tallstam</t>
+          <t>Liggande murken granstam</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr"/>
@@ -7359,10 +7354,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>87268303</v>
+        <v>87268300</v>
       </c>
       <c r="B58" t="n">
-        <v>94838</v>
+        <v>93276</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7375,21 +7370,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2569</v>
+        <v>2170</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Bazzania trilobata</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) Gray</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7399,10 +7394,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>536464.1652371098</v>
+        <v>536419.0481739138</v>
       </c>
       <c r="R58" t="n">
-        <v>6613030.163334376</v>
+        <v>6613035.789294735</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7458,12 +7453,12 @@
       </c>
       <c r="AI58" t="inlineStr">
         <is>
-          <t>Barrskog, blockanhopning i sänka</t>
+          <t>Äldre barrskog</t>
         </is>
       </c>
       <c r="AO58" t="inlineStr">
         <is>
-          <t>På block</t>
+          <t>Liggande murken tallstam</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr"/>
@@ -7481,10 +7476,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>87268310</v>
+        <v>87268303</v>
       </c>
       <c r="B59" t="n">
-        <v>98520</v>
+        <v>94838</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7497,21 +7492,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>222498</v>
+        <v>2569</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Bazzania trilobata</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Gray</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7521,10 +7516,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>536333.1795945163</v>
+        <v>536464.1652371098</v>
       </c>
       <c r="R59" t="n">
-        <v>6612753.915140437</v>
+        <v>6613030.163334376</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7580,7 +7575,12 @@
       </c>
       <c r="AI59" t="inlineStr">
         <is>
-          <t>Ädre barrskog</t>
+          <t>Barrskog, blockanhopning i sänka</t>
+        </is>
+      </c>
+      <c r="AO59" t="inlineStr">
+        <is>
+          <t>På block</t>
         </is>
       </c>
       <c r="AT59" t="inlineStr"/>
@@ -7598,10 +7598,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>87268285</v>
+        <v>87268310</v>
       </c>
       <c r="B60" t="n">
-        <v>90653</v>
+        <v>98520</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7614,21 +7614,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4364</v>
+        <v>222498</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7638,10 +7638,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>535908.041658802</v>
+        <v>536333.1795945163</v>
       </c>
       <c r="R60" t="n">
-        <v>6613155.188176636</v>
+        <v>6612753.915140437</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7697,7 +7697,7 @@
       </c>
       <c r="AI60" t="inlineStr">
         <is>
-          <t>Äldre barrskog</t>
+          <t>Ädre barrskog</t>
         </is>
       </c>
       <c r="AT60" t="inlineStr"/>
@@ -7715,10 +7715,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>87268289</v>
+        <v>87268285</v>
       </c>
       <c r="B61" t="n">
-        <v>90671</v>
+        <v>90653</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7727,25 +7727,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>4368</v>
+        <v>4364</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7755,10 +7755,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>536109.2113311944</v>
+        <v>535908.041658802</v>
       </c>
       <c r="R61" t="n">
-        <v>6613032.786336808</v>
+        <v>6613155.188176636</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7832,10 +7832,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>87268291</v>
+        <v>87268289</v>
       </c>
       <c r="B62" t="n">
-        <v>90665</v>
+        <v>90671</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7844,25 +7844,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>4366</v>
+        <v>4368</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7872,10 +7872,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>536250.8344720104</v>
+        <v>536109.2113311944</v>
       </c>
       <c r="R62" t="n">
-        <v>6612525.135766039</v>
+        <v>6613032.786336808</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7931,7 +7931,7 @@
       </c>
       <c r="AI62" t="inlineStr">
         <is>
-          <t>Äldre granskog, örtstråk</t>
+          <t>Äldre barrskog</t>
         </is>
       </c>
       <c r="AT62" t="inlineStr"/>
@@ -7949,10 +7949,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>87268288</v>
+        <v>87268291</v>
       </c>
       <c r="B63" t="n">
-        <v>90671</v>
+        <v>90665</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7961,25 +7961,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>4368</v>
+        <v>4366</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7989,10 +7989,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>536453.1445763797</v>
+        <v>536250.8344720104</v>
       </c>
       <c r="R63" t="n">
-        <v>6613069.986172274</v>
+        <v>6612525.135766039</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -8048,7 +8048,7 @@
       </c>
       <c r="AI63" t="inlineStr">
         <is>
-          <t>Äldre barrskog, örtstråk i sänka</t>
+          <t>Äldre granskog, örtstråk</t>
         </is>
       </c>
       <c r="AT63" t="inlineStr"/>
@@ -8066,10 +8066,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>87268294</v>
+        <v>87268288</v>
       </c>
       <c r="B64" t="n">
-        <v>90645</v>
+        <v>90671</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8082,21 +8082,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>4361</v>
+        <v>4368</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -8106,10 +8106,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>536463.7703930424</v>
+        <v>536453.1445763797</v>
       </c>
       <c r="R64" t="n">
-        <v>6612603.031153577</v>
+        <v>6613069.986172274</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -8165,7 +8165,7 @@
       </c>
       <c r="AI64" t="inlineStr">
         <is>
-          <t>Äldre barrskog</t>
+          <t>Äldre barrskog, örtstråk i sänka</t>
         </is>
       </c>
       <c r="AT64" t="inlineStr"/>

--- a/artfynd/A 14810-2019.xlsx
+++ b/artfynd/A 14810-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>87268294</v>
+        <v>78048328</v>
       </c>
       <c r="B2" t="n">
-        <v>90645</v>
+        <v>94121</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4361</v>
+        <v>53</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,13 +720,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>536463.7703930424</v>
+        <v>536327.1569634416</v>
       </c>
       <c r="R2" t="n">
-        <v>6612603.031153577</v>
+        <v>6612696.230897317</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2019-09-10</t>
+          <t>2019-03-29</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2019-09-17</t>
+          <t>2019-03-29</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -776,11 +776,6 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>Äldre barrskog</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -790,14 +785,14 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Tommy Pettersson</t>
+          <t>Jacob Rudhe</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>78048328</v>
+        <v>78048326</v>
       </c>
       <c r="B3" t="n">
         <v>94121</v>
@@ -837,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>536327.1569634416</v>
+        <v>536325.8725824017</v>
       </c>
       <c r="R3" t="n">
-        <v>6612696.230897317</v>
+        <v>6612619.888196192</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -909,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>78048326</v>
+        <v>78048334</v>
       </c>
       <c r="B4" t="n">
-        <v>94121</v>
+        <v>73631</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -921,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>53</v>
+        <v>6426</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -949,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>536325.8725824017</v>
+        <v>536275.0718163725</v>
       </c>
       <c r="R4" t="n">
-        <v>6612619.888196192</v>
+        <v>6612897.917391031</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1021,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>78048334</v>
+        <v>78048315</v>
       </c>
       <c r="B5" t="n">
-        <v>73631</v>
+        <v>89392</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1033,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6426</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1061,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>536275.0718163725</v>
+        <v>536235.9940487144</v>
       </c>
       <c r="R5" t="n">
-        <v>6612897.917391031</v>
+        <v>6613011.772271588</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1133,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>78048315</v>
+        <v>78048324</v>
       </c>
       <c r="B6" t="n">
-        <v>89392</v>
+        <v>94121</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1149,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>53</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>536235.9940487144</v>
+        <v>536202.8768236646</v>
       </c>
       <c r="R6" t="n">
-        <v>6613011.772271588</v>
+        <v>6612562.079503523</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1245,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>78048324</v>
+        <v>78048320</v>
       </c>
       <c r="B7" t="n">
-        <v>94121</v>
+        <v>78098</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>53</v>
+        <v>6453</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1285,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>536202.8768236646</v>
+        <v>536152.7892086137</v>
       </c>
       <c r="R7" t="n">
-        <v>6612562.079503523</v>
+        <v>6612714.761902597</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1357,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>78048320</v>
+        <v>78048329</v>
       </c>
       <c r="B8" t="n">
-        <v>78098</v>
+        <v>94121</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1373,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6453</v>
+        <v>53</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1397,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>536152.7892086137</v>
+        <v>536300.0869130346</v>
       </c>
       <c r="R8" t="n">
-        <v>6612714.761902597</v>
+        <v>6612720.231794543</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1469,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>78048329</v>
+        <v>78048316</v>
       </c>
       <c r="B9" t="n">
-        <v>94121</v>
+        <v>89392</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1485,21 +1480,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>53</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1509,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>536300.0869130346</v>
+        <v>536177.8323430284</v>
       </c>
       <c r="R9" t="n">
-        <v>6612720.231794543</v>
+        <v>6613109.77096361</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1581,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>78048316</v>
+        <v>78048318</v>
       </c>
       <c r="B10" t="n">
-        <v>89392</v>
+        <v>89356</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1593,25 +1588,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1621,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>536177.8323430284</v>
+        <v>536115.7980990882</v>
       </c>
       <c r="R10" t="n">
-        <v>6613109.77096361</v>
+        <v>6612770.008195957</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1693,7 +1688,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>78048318</v>
+        <v>78048319</v>
       </c>
       <c r="B11" t="n">
         <v>89356</v>
@@ -1733,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>536115.7980990882</v>
+        <v>536180.1594061058</v>
       </c>
       <c r="R11" t="n">
-        <v>6612770.008195957</v>
+        <v>6612711.993489651</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1805,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>78048319</v>
+        <v>78048312</v>
       </c>
       <c r="B12" t="n">
-        <v>89356</v>
+        <v>89392</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1817,25 +1812,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1845,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>536180.1594061058</v>
+        <v>536311.8896772385</v>
       </c>
       <c r="R12" t="n">
-        <v>6612711.993489651</v>
+        <v>6612964.995403937</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1917,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>78048312</v>
+        <v>78048325</v>
       </c>
       <c r="B13" t="n">
-        <v>89392</v>
+        <v>89356</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1929,25 +1924,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1957,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>536311.8896772385</v>
+        <v>536317.2454282821</v>
       </c>
       <c r="R13" t="n">
-        <v>6612964.995403937</v>
+        <v>6612621.826474189</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2029,7 +2024,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>78048325</v>
+        <v>78048313</v>
       </c>
       <c r="B14" t="n">
         <v>89356</v>
@@ -2069,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>536317.2454282821</v>
+        <v>536224.0809567241</v>
       </c>
       <c r="R14" t="n">
-        <v>6612621.826474189</v>
+        <v>6612934.827682796</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2141,10 +2136,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>78048313</v>
+        <v>78048314</v>
       </c>
       <c r="B15" t="n">
-        <v>89356</v>
+        <v>89392</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2153,25 +2148,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2181,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>536224.0809567241</v>
+        <v>536219.1721673083</v>
       </c>
       <c r="R15" t="n">
-        <v>6612934.827682796</v>
+        <v>6612971.17315519</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2253,7 +2248,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>78048314</v>
+        <v>78048311</v>
       </c>
       <c r="B16" t="n">
         <v>89392</v>
@@ -2293,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>536219.1721673083</v>
+        <v>536410.1085462754</v>
       </c>
       <c r="R16" t="n">
-        <v>6612971.17315519</v>
+        <v>6612809.760389954</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2365,10 +2360,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>78048311</v>
+        <v>78048332</v>
       </c>
       <c r="B17" t="n">
-        <v>89392</v>
+        <v>73507</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2377,25 +2372,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1202</v>
+        <v>6428</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2405,10 +2400,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>536410.1085462754</v>
+        <v>536310.814922838</v>
       </c>
       <c r="R17" t="n">
-        <v>6612809.760389954</v>
+        <v>6612814.861281444</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2477,10 +2472,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>78048332</v>
+        <v>86992206</v>
       </c>
       <c r="B18" t="n">
-        <v>73507</v>
+        <v>89356</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2493,34 +2488,39 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6428</v>
+        <v>5447</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>N Ångnaren, Vstm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>536310.814922838</v>
+        <v>536094.760197836</v>
       </c>
       <c r="R18" t="n">
-        <v>6612814.861281444</v>
+        <v>6612903.755677314</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2019-03-29</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2019-03-29</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2573,6 +2573,11 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>Barrnaturskog</t>
+        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
@@ -2582,17 +2587,17 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Jacob Rudhe</t>
+          <t>Jacob Rudhe, Zsombor Károlyi</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>86992206</v>
+        <v>86992204</v>
       </c>
       <c r="B19" t="n">
-        <v>89356</v>
+        <v>78098</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2601,43 +2606,38 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5447</v>
+        <v>6453</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>N Ångnaren, Vstm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>536094.760197836</v>
+        <v>536041.1814074734</v>
       </c>
       <c r="R19" t="n">
-        <v>6612903.755677314</v>
+        <v>6612894.140851921</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2711,10 +2711,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>86992204</v>
+        <v>86992210</v>
       </c>
       <c r="B20" t="n">
-        <v>78098</v>
+        <v>89356</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2723,38 +2723,43 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6453</v>
+        <v>5447</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>N Ångnaren, Vstm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>536041.1814074734</v>
+        <v>536207.1172397283</v>
       </c>
       <c r="R20" t="n">
-        <v>6612894.140851921</v>
+        <v>6613222.765008557</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2828,10 +2833,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>86992210</v>
+        <v>86992196</v>
       </c>
       <c r="B21" t="n">
-        <v>89356</v>
+        <v>94121</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2840,43 +2845,38 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5447</v>
+        <v>53</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>N Ångnaren, Vstm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>536207.1172397283</v>
+        <v>536257.1208539325</v>
       </c>
       <c r="R21" t="n">
-        <v>6613222.765008557</v>
+        <v>6612764.803560221</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2950,10 +2950,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>86992196</v>
+        <v>86992215</v>
       </c>
       <c r="B22" t="n">
-        <v>94121</v>
+        <v>90653</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2962,38 +2962,43 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>53</v>
+        <v>4364</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>N Ångnaren, Vstm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>536257.1208539325</v>
+        <v>536254.9998195746</v>
       </c>
       <c r="R22" t="n">
-        <v>6612764.803560221</v>
+        <v>6613244.961778558</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3067,10 +3072,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>86992215</v>
+        <v>86992214</v>
       </c>
       <c r="B23" t="n">
-        <v>90653</v>
+        <v>89392</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3079,28 +3084,37 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4364</v>
+        <v>1202</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>teleomorf</t>
@@ -3112,10 +3126,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>536254.9998195746</v>
+        <v>536205.7917535987</v>
       </c>
       <c r="R23" t="n">
-        <v>6613244.961778558</v>
+        <v>6613255.099041227</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3189,10 +3203,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>86992214</v>
+        <v>86992192</v>
       </c>
       <c r="B24" t="n">
-        <v>89392</v>
+        <v>89356</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3201,37 +3215,28 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>teleomorf</t>
@@ -3243,10 +3248,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>536205.7917535987</v>
+        <v>536430.8880235823</v>
       </c>
       <c r="R24" t="n">
-        <v>6613255.099041227</v>
+        <v>6613119.807937194</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3320,7 +3325,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>86992192</v>
+        <v>86992205</v>
       </c>
       <c r="B25" t="n">
         <v>89356</v>
@@ -3365,10 +3370,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>536430.8880235823</v>
+        <v>536058.0006962135</v>
       </c>
       <c r="R25" t="n">
-        <v>6613119.807937194</v>
+        <v>6612935.245384749</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3442,10 +3447,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>86992205</v>
+        <v>86992194</v>
       </c>
       <c r="B26" t="n">
-        <v>89356</v>
+        <v>90676</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3454,25 +3459,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5447</v>
+        <v>5966</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3487,10 +3492,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>536058.0006962135</v>
+        <v>536251.1841369969</v>
       </c>
       <c r="R26" t="n">
-        <v>6612935.245384749</v>
+        <v>6613063.980438209</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3564,10 +3569,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>86992194</v>
+        <v>86992193</v>
       </c>
       <c r="B27" t="n">
-        <v>90676</v>
+        <v>89392</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3580,24 +3585,33 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5966</v>
+        <v>1202</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>teleomorf</t>
@@ -3609,10 +3623,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>536251.1841369969</v>
+        <v>536320.8053038279</v>
       </c>
       <c r="R27" t="n">
-        <v>6613063.980438209</v>
+        <v>6613194.046929843</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3686,10 +3700,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>86992193</v>
+        <v>86992213</v>
       </c>
       <c r="B28" t="n">
-        <v>89392</v>
+        <v>89832</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3698,25 +3712,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -3740,10 +3754,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>536320.8053038279</v>
+        <v>536207.2126561686</v>
       </c>
       <c r="R28" t="n">
-        <v>6613194.046929843</v>
+        <v>6613265.221128508</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3817,10 +3831,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>86992213</v>
+        <v>86992201</v>
       </c>
       <c r="B29" t="n">
-        <v>89832</v>
+        <v>89392</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3829,25 +3843,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -3871,10 +3885,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>536207.2126561686</v>
+        <v>536194.0840691426</v>
       </c>
       <c r="R29" t="n">
-        <v>6613265.221128508</v>
+        <v>6612685.842545609</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3948,10 +3962,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>86992201</v>
+        <v>86992182</v>
       </c>
       <c r="B30" t="n">
-        <v>89392</v>
+        <v>89356</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3960,37 +3974,28 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>teleomorf</t>
@@ -4002,10 +4007,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>536194.0840691426</v>
+        <v>536311.8896772385</v>
       </c>
       <c r="R30" t="n">
-        <v>6612685.842545609</v>
+        <v>6612964.995403937</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4079,10 +4084,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>86992182</v>
+        <v>86992202</v>
       </c>
       <c r="B31" t="n">
-        <v>89356</v>
+        <v>90653</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4095,21 +4100,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5447</v>
+        <v>4364</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4124,10 +4129,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>536311.8896772385</v>
+        <v>536125.0031379085</v>
       </c>
       <c r="R31" t="n">
-        <v>6612964.995403937</v>
+        <v>6612813.062819644</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4201,10 +4206,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>86992202</v>
+        <v>86992180</v>
       </c>
       <c r="B32" t="n">
-        <v>90653</v>
+        <v>89392</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4213,28 +4218,37 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4364</v>
+        <v>1202</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>teleomorf</t>
@@ -4246,10 +4260,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>536125.0031379085</v>
+        <v>536318.0346974479</v>
       </c>
       <c r="R32" t="n">
-        <v>6612813.062819644</v>
+        <v>6613010.040437521</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4323,10 +4337,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>86992180</v>
+        <v>86992181</v>
       </c>
       <c r="B33" t="n">
-        <v>89392</v>
+        <v>89356</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4335,37 +4349,28 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>teleomorf</t>
@@ -4377,10 +4382,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>536318.0346974479</v>
+        <v>536321.2293271344</v>
       </c>
       <c r="R33" t="n">
-        <v>6613010.040437521</v>
+        <v>6612993.896985485</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4454,10 +4459,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>86992181</v>
+        <v>86992189</v>
       </c>
       <c r="B34" t="n">
-        <v>89356</v>
+        <v>89392</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4466,28 +4471,37 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>teleomorf</t>
@@ -4499,10 +4513,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>536321.2293271344</v>
+        <v>536474.8879553603</v>
       </c>
       <c r="R34" t="n">
-        <v>6612993.896985485</v>
+        <v>6612917.04565632</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4576,7 +4590,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>86992189</v>
+        <v>86992209</v>
       </c>
       <c r="B35" t="n">
         <v>89392</v>
@@ -4630,10 +4644,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>536474.8879553603</v>
+        <v>536207.1172397283</v>
       </c>
       <c r="R35" t="n">
-        <v>6612917.04565632</v>
+        <v>6613222.765008557</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4707,10 +4721,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>86992209</v>
+        <v>86992208</v>
       </c>
       <c r="B36" t="n">
-        <v>89392</v>
+        <v>89356</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4719,37 +4733,28 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>teleomorf</t>
@@ -4761,10 +4766,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>536207.1172397283</v>
+        <v>535903.7636971432</v>
       </c>
       <c r="R36" t="n">
-        <v>6613222.765008557</v>
+        <v>6613178.902258919</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4838,10 +4843,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>86992208</v>
+        <v>86992207</v>
       </c>
       <c r="B37" t="n">
-        <v>89356</v>
+        <v>90653</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4854,21 +4859,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5447</v>
+        <v>4364</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4883,10 +4888,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>535903.7636971432</v>
+        <v>536187.8729946789</v>
       </c>
       <c r="R37" t="n">
-        <v>6613178.902258919</v>
+        <v>6612909.204212928</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4960,10 +4965,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>86992207</v>
+        <v>86992197</v>
       </c>
       <c r="B38" t="n">
-        <v>90653</v>
+        <v>73631</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4976,39 +4981,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4364</v>
+        <v>6426</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>N Ångnaren, Vstm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>536187.8729946789</v>
+        <v>536355.147229443</v>
       </c>
       <c r="R38" t="n">
-        <v>6612909.204212928</v>
+        <v>6612733.909030474</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5082,10 +5082,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>86992197</v>
+        <v>86992195</v>
       </c>
       <c r="B39" t="n">
-        <v>73631</v>
+        <v>89392</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5094,38 +5094,52 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6426</v>
+        <v>1202</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr">
         <is>
           <t>N Ångnaren, Vstm</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>536355.147229443</v>
+        <v>536248.8202652718</v>
       </c>
       <c r="R39" t="n">
-        <v>6612733.909030474</v>
+        <v>6612942.143709468</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5199,7 +5213,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>86992195</v>
+        <v>87268280</v>
       </c>
       <c r="B40" t="n">
         <v>89392</v>
@@ -5232,34 +5246,20 @@
           <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>N Ångnaren, Vstm</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>536248.8202652718</v>
+        <v>536200.208762412</v>
       </c>
       <c r="R40" t="n">
-        <v>6612942.143709468</v>
+        <v>6612680.846845075</v>
       </c>
       <c r="S40" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-09-10</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
@@ -5293,7 +5293,7 @@
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-09-17</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
@@ -5312,7 +5312,12 @@
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>Barrnaturskog</t>
+          <t>Äldre granskog</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>Liggande granstam</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -5323,14 +5328,14 @@
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Jacob Rudhe, Zsombor Károlyi</t>
+          <t>Tommy Pettersson</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>87268280</v>
+        <v>87268281</v>
       </c>
       <c r="B41" t="n">
         <v>89392</v>
@@ -5370,10 +5375,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>536200.208762412</v>
+        <v>536240.0050669576</v>
       </c>
       <c r="R41" t="n">
-        <v>6612680.846845075</v>
+        <v>6613015.854718979</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5429,7 +5434,7 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>Äldre granskog</t>
+          <t>Äldre barrskog</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
@@ -5452,10 +5457,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>87268281</v>
+        <v>87268296</v>
       </c>
       <c r="B42" t="n">
-        <v>89392</v>
+        <v>90645</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5468,21 +5473,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1202</v>
+        <v>4361</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5492,10 +5497,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>536240.0050669576</v>
+        <v>535982.2218852191</v>
       </c>
       <c r="R42" t="n">
-        <v>6613015.854718979</v>
+        <v>6613128.102080177</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5552,11 +5557,6 @@
       <c r="AI42" t="inlineStr">
         <is>
           <t>Äldre barrskog</t>
-        </is>
-      </c>
-      <c r="AO42" t="inlineStr">
-        <is>
-          <t>Liggande granstam</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -5574,10 +5574,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>87268296</v>
+        <v>87268307</v>
       </c>
       <c r="B43" t="n">
-        <v>90645</v>
+        <v>98520</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5586,25 +5586,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4361</v>
+        <v>222498</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5614,10 +5614,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>535982.2218852191</v>
+        <v>536282.0051510433</v>
       </c>
       <c r="R43" t="n">
-        <v>6613128.102080177</v>
+        <v>6612652.825695952</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>Äldre barrskog</t>
+          <t>Äldre granskog, lågörtstyp</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -5691,10 +5691,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>87268307</v>
+        <v>87268298</v>
       </c>
       <c r="B44" t="n">
-        <v>98520</v>
+        <v>78503</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5707,21 +5707,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>222498</v>
+        <v>6456</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5731,10 +5731,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>536282.0051510433</v>
+        <v>536419.9877669835</v>
       </c>
       <c r="R44" t="n">
-        <v>6612652.825695952</v>
+        <v>6612939.256692476</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5790,7 +5790,12 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>Äldre granskog, lågörtstyp</t>
+          <t>Äldre barrskog, västbrant</t>
+        </is>
+      </c>
+      <c r="AO44" t="inlineStr">
+        <is>
+          <t>Asp</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -5808,10 +5813,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>87268298</v>
+        <v>87268305</v>
       </c>
       <c r="B45" t="n">
-        <v>78503</v>
+        <v>94121</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5820,25 +5825,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6456</v>
+        <v>53</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5848,10 +5853,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>536419.9877669835</v>
+        <v>536388.2344839968</v>
       </c>
       <c r="R45" t="n">
-        <v>6612939.256692476</v>
+        <v>6612872.226366057</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5907,12 +5912,12 @@
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>Äldre barrskog, västbrant</t>
+          <t>Äldre barrskog</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>Asp</t>
+          <t>Liggande murken björkstam</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -5930,10 +5935,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>87268305</v>
+        <v>87268309</v>
       </c>
       <c r="B46" t="n">
-        <v>94121</v>
+        <v>98520</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5942,25 +5947,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>53</v>
+        <v>222498</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5970,10 +5975,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>536388.2344839968</v>
+        <v>536296.2325198681</v>
       </c>
       <c r="R46" t="n">
-        <v>6612872.226366057</v>
+        <v>6612699.974761176</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -6030,11 +6035,6 @@
       <c r="AI46" t="inlineStr">
         <is>
           <t>Äldre barrskog</t>
-        </is>
-      </c>
-      <c r="AO46" t="inlineStr">
-        <is>
-          <t>Liggande murken björkstam</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -6052,10 +6052,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>87268309</v>
+        <v>87268299</v>
       </c>
       <c r="B47" t="n">
-        <v>98520</v>
+        <v>93276</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6068,21 +6068,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>222498</v>
+        <v>2170</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -6092,10 +6092,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>536296.2325198681</v>
+        <v>536088.081637959</v>
       </c>
       <c r="R47" t="n">
-        <v>6612699.974761176</v>
+        <v>6612861.232006238</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -6152,6 +6152,11 @@
       <c r="AI47" t="inlineStr">
         <is>
           <t>Äldre barrskog</t>
+        </is>
+      </c>
+      <c r="AO47" t="inlineStr">
+        <is>
+          <t>Liggande murken tallstam</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -6169,10 +6174,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>87268299</v>
+        <v>87268295</v>
       </c>
       <c r="B48" t="n">
-        <v>93276</v>
+        <v>90645</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6181,25 +6186,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2170</v>
+        <v>4361</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6209,10 +6214,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>536088.081637959</v>
+        <v>536312.0927440071</v>
       </c>
       <c r="R48" t="n">
-        <v>6612861.232006238</v>
+        <v>6612578.808465026</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6268,12 +6273,7 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>Äldre barrskog</t>
-        </is>
-      </c>
-      <c r="AO48" t="inlineStr">
-        <is>
-          <t>Liggande murken tallstam</t>
+          <t>Äldre granskog</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -6291,10 +6291,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>87268295</v>
+        <v>87268275</v>
       </c>
       <c r="B49" t="n">
-        <v>90645</v>
+        <v>90697</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6307,21 +6307,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4361</v>
+        <v>5449</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6331,10 +6331,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>536312.0927440071</v>
+        <v>536243.9535535104</v>
       </c>
       <c r="R49" t="n">
-        <v>6612578.808465026</v>
+        <v>6613183.193127984</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6390,7 +6390,7 @@
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>Äldre granskog</t>
+          <t>Äldre tallskog, lav-ristyp</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>
@@ -6408,7 +6408,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>87268275</v>
+        <v>87268276</v>
       </c>
       <c r="B50" t="n">
         <v>90697</v>
@@ -6448,10 +6448,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>536243.9535535104</v>
+        <v>536185.2026722064</v>
       </c>
       <c r="R50" t="n">
-        <v>6613183.193127984</v>
+        <v>6612975.899044176</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6507,7 +6507,7 @@
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>Äldre tallskog, lav-ristyp</t>
+          <t>Äldre barrskog</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -6525,10 +6525,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>87268276</v>
+        <v>87268292</v>
       </c>
       <c r="B51" t="n">
-        <v>90697</v>
+        <v>90655</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6541,21 +6541,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5449</v>
+        <v>788</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Gul taggsvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum geogenium</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.) Banker</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6565,10 +6565,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>536185.2026722064</v>
+        <v>536050.1188562188</v>
       </c>
       <c r="R51" t="n">
-        <v>6612975.899044176</v>
+        <v>6613070.124858442</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6624,7 +6624,7 @@
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>Äldre barrskog</t>
+          <t>Äldre barrskog, örtstråk</t>
         </is>
       </c>
       <c r="AT51" t="inlineStr"/>
@@ -6642,10 +6642,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>87268292</v>
+        <v>87268290</v>
       </c>
       <c r="B52" t="n">
-        <v>90655</v>
+        <v>90665</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6654,25 +6654,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>788</v>
+        <v>4366</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Gul taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hydnellum geogenium</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Fr.) Banker</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6682,10 +6682,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>536050.1188562188</v>
+        <v>536443.1368756294</v>
       </c>
       <c r="R52" t="n">
-        <v>6613070.124858442</v>
+        <v>6612745.885639772</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6759,10 +6759,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>87268290</v>
+        <v>87268308</v>
       </c>
       <c r="B53" t="n">
-        <v>90665</v>
+        <v>98520</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6775,21 +6775,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4366</v>
+        <v>222498</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6799,10 +6799,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>536443.1368756294</v>
+        <v>536391.8964998829</v>
       </c>
       <c r="R53" t="n">
-        <v>6612745.885639772</v>
+        <v>6612808.066791329</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6858,7 +6858,7 @@
       </c>
       <c r="AI53" t="inlineStr">
         <is>
-          <t>Äldre barrskog, örtstråk</t>
+          <t>Äldre barrskog</t>
         </is>
       </c>
       <c r="AT53" t="inlineStr"/>
@@ -6876,10 +6876,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>87268308</v>
+        <v>87268293</v>
       </c>
       <c r="B54" t="n">
-        <v>98520</v>
+        <v>90653</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6892,21 +6892,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>222498</v>
+        <v>4364</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6916,10 +6916,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>536391.8964998829</v>
+        <v>536081.8220503493</v>
       </c>
       <c r="R54" t="n">
-        <v>6612808.066791329</v>
+        <v>6612775.240733222</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6993,10 +6993,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>87268293</v>
+        <v>87268278</v>
       </c>
       <c r="B55" t="n">
-        <v>90653</v>
+        <v>89356</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7009,21 +7009,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4364</v>
+        <v>5447</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -7033,10 +7033,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>536081.8220503493</v>
+        <v>536312.9807135732</v>
       </c>
       <c r="R55" t="n">
-        <v>6612775.240733222</v>
+        <v>6612956.918673363</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -7093,6 +7093,11 @@
       <c r="AI55" t="inlineStr">
         <is>
           <t>Äldre barrskog</t>
+        </is>
+      </c>
+      <c r="AO55" t="inlineStr">
+        <is>
+          <t>Liggande granstam</t>
         </is>
       </c>
       <c r="AT55" t="inlineStr"/>
@@ -7110,10 +7115,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>87268278</v>
+        <v>87268304</v>
       </c>
       <c r="B56" t="n">
-        <v>89356</v>
+        <v>94121</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7122,25 +7127,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5447</v>
+        <v>53</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7150,10 +7155,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>536312.9807135732</v>
+        <v>536168.7891376906</v>
       </c>
       <c r="R56" t="n">
-        <v>6612956.918673363</v>
+        <v>6612788.211864223</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -7209,12 +7214,12 @@
       </c>
       <c r="AI56" t="inlineStr">
         <is>
-          <t>Äldre barrskog</t>
+          <t>Äldre barrskog, fuktig sänka</t>
         </is>
       </c>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>Liggande granstam</t>
+          <t>Liggande murken granstam</t>
         </is>
       </c>
       <c r="AT56" t="inlineStr"/>
@@ -7232,10 +7237,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>87268304</v>
+        <v>87268300</v>
       </c>
       <c r="B57" t="n">
-        <v>94121</v>
+        <v>93276</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7244,25 +7249,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>53</v>
+        <v>2170</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7272,10 +7277,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>536168.7891376906</v>
+        <v>536419.0481739138</v>
       </c>
       <c r="R57" t="n">
-        <v>6612788.211864223</v>
+        <v>6613035.789294735</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7331,12 +7336,12 @@
       </c>
       <c r="AI57" t="inlineStr">
         <is>
-          <t>Äldre barrskog, fuktig sänka</t>
+          <t>Äldre barrskog</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>Liggande murken granstam</t>
+          <t>Liggande murken tallstam</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr"/>
@@ -7354,10 +7359,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>87268300</v>
+        <v>87268303</v>
       </c>
       <c r="B58" t="n">
-        <v>93276</v>
+        <v>94838</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7370,21 +7375,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2170</v>
+        <v>2569</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Bazzania trilobata</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(L.) Gray</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7394,10 +7399,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>536419.0481739138</v>
+        <v>536464.1652371098</v>
       </c>
       <c r="R58" t="n">
-        <v>6613035.789294735</v>
+        <v>6613030.163334376</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7453,12 +7458,12 @@
       </c>
       <c r="AI58" t="inlineStr">
         <is>
-          <t>Äldre barrskog</t>
+          <t>Barrskog, blockanhopning i sänka</t>
         </is>
       </c>
       <c r="AO58" t="inlineStr">
         <is>
-          <t>Liggande murken tallstam</t>
+          <t>På block</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr"/>
@@ -7476,10 +7481,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>87268303</v>
+        <v>87268310</v>
       </c>
       <c r="B59" t="n">
-        <v>94838</v>
+        <v>98520</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7492,21 +7497,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>2569</v>
+        <v>222498</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Bazzania trilobata</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(L.) Gray</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7516,10 +7521,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>536464.1652371098</v>
+        <v>536333.1795945163</v>
       </c>
       <c r="R59" t="n">
-        <v>6613030.163334376</v>
+        <v>6612753.915140437</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7575,12 +7580,7 @@
       </c>
       <c r="AI59" t="inlineStr">
         <is>
-          <t>Barrskog, blockanhopning i sänka</t>
-        </is>
-      </c>
-      <c r="AO59" t="inlineStr">
-        <is>
-          <t>På block</t>
+          <t>Ädre barrskog</t>
         </is>
       </c>
       <c r="AT59" t="inlineStr"/>
@@ -7598,10 +7598,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>87268310</v>
+        <v>87268285</v>
       </c>
       <c r="B60" t="n">
-        <v>98520</v>
+        <v>90653</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7614,21 +7614,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>222498</v>
+        <v>4364</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7638,10 +7638,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>536333.1795945163</v>
+        <v>535908.041658802</v>
       </c>
       <c r="R60" t="n">
-        <v>6612753.915140437</v>
+        <v>6613155.188176636</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7697,7 +7697,7 @@
       </c>
       <c r="AI60" t="inlineStr">
         <is>
-          <t>Ädre barrskog</t>
+          <t>Äldre barrskog</t>
         </is>
       </c>
       <c r="AT60" t="inlineStr"/>
@@ -7715,10 +7715,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>87268285</v>
+        <v>87268289</v>
       </c>
       <c r="B61" t="n">
-        <v>90653</v>
+        <v>90671</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7727,25 +7727,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>4364</v>
+        <v>4368</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7755,10 +7755,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>535908.041658802</v>
+        <v>536109.2113311944</v>
       </c>
       <c r="R61" t="n">
-        <v>6613155.188176636</v>
+        <v>6613032.786336808</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7832,10 +7832,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>87268289</v>
+        <v>87268291</v>
       </c>
       <c r="B62" t="n">
-        <v>90671</v>
+        <v>90665</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7844,25 +7844,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>4368</v>
+        <v>4366</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7872,10 +7872,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>536109.2113311944</v>
+        <v>536250.8344720104</v>
       </c>
       <c r="R62" t="n">
-        <v>6613032.786336808</v>
+        <v>6612525.135766039</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7931,7 +7931,7 @@
       </c>
       <c r="AI62" t="inlineStr">
         <is>
-          <t>Äldre barrskog</t>
+          <t>Äldre granskog, örtstråk</t>
         </is>
       </c>
       <c r="AT62" t="inlineStr"/>
@@ -7949,10 +7949,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>87268291</v>
+        <v>87268288</v>
       </c>
       <c r="B63" t="n">
-        <v>90665</v>
+        <v>90671</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7961,25 +7961,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>4366</v>
+        <v>4368</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7989,10 +7989,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>536250.8344720104</v>
+        <v>536453.1445763797</v>
       </c>
       <c r="R63" t="n">
-        <v>6612525.135766039</v>
+        <v>6613069.986172274</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -8048,7 +8048,7 @@
       </c>
       <c r="AI63" t="inlineStr">
         <is>
-          <t>Äldre granskog, örtstråk</t>
+          <t>Äldre barrskog, örtstråk i sänka</t>
         </is>
       </c>
       <c r="AT63" t="inlineStr"/>
@@ -8066,10 +8066,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>87268288</v>
+        <v>87268294</v>
       </c>
       <c r="B64" t="n">
-        <v>90671</v>
+        <v>90645</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8082,21 +8082,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>4368</v>
+        <v>4361</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -8106,10 +8106,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>536453.1445763797</v>
+        <v>536463.7703930424</v>
       </c>
       <c r="R64" t="n">
-        <v>6613069.986172274</v>
+        <v>6612603.031153577</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -8165,7 +8165,7 @@
       </c>
       <c r="AI64" t="inlineStr">
         <is>
-          <t>Äldre barrskog, örtstråk i sänka</t>
+          <t>Äldre barrskog</t>
         </is>
       </c>
       <c r="AT64" t="inlineStr"/>
